--- a/Files/Base de dados Alimentos.xlsx
+++ b/Files/Base de dados Alimentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="EsteLivro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuno_\source\repos\FoodTracker_APP\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028BCC0C-5590-4FBC-AE69-F23D18B8281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F1C277-EB4E-4557-AF0B-999FF2AF40DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food_FVersion" sheetId="5" r:id="rId1"/>
@@ -2594,7 +2594,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
@@ -4853,7 +4853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC56E52E-84AC-4CD4-B7A1-DE194AA32BEA}">
   <dimension ref="A1:A203"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
@@ -5886,7 +5886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382C1D65-FAE1-43FF-80CC-55A60CE68225}">
   <dimension ref="A1:A203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
